--- a/CRM/Mapeos_CLS_CRM_V2.1.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLASIFICACIONES_CRM" sheetId="8" r:id="rId1"/>
@@ -1813,7 +1813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="189">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -2283,93 +2283,6 @@
     <t>Validaciones Generales PS_CM_PURP_TYP_LNG/ 6. Búsqueda del nombre largo</t>
   </si>
   <si>
-    <t>BO_TYPE_ID</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_IND</t>
-  </si>
-  <si>
-    <t>JOIN_IND</t>
-  </si>
-  <si>
-    <t>RB_TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>ROLE_ICON_ENABLED</t>
-  </si>
-  <si>
-    <t>ROLE_ICON_DISABLED</t>
-  </si>
-  <si>
-    <t>BO_CAPTURE_CM</t>
-  </si>
-  <si>
-    <t>QUALIFYPATH</t>
-  </si>
-  <si>
-    <t>BASIC_DATA_ENABLED</t>
-  </si>
-  <si>
-    <t>APPCLASSID</t>
-  </si>
-  <si>
-    <t>APPCLASS_PATH</t>
-  </si>
-  <si>
-    <t>PUBLISH_FLAG</t>
-  </si>
-  <si>
-    <t>QC_ENABLED</t>
-  </si>
-  <si>
-    <t>SETID_ENABLED</t>
-  </si>
-  <si>
-    <t>CASCADE_OPTION</t>
-  </si>
-  <si>
-    <t>RECNAME_SETID</t>
-  </si>
-  <si>
-    <t>RECNAME_STATUS</t>
-  </si>
-  <si>
-    <t>FIELDNAME_STATUS</t>
-  </si>
-  <si>
-    <t>RC_MAINT_OWNER</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION01</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION02</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION03</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION04</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION05</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION06</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION07</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION08</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION09</t>
-  </si>
-  <si>
-    <t>SYSD_APPLICATION10</t>
-  </si>
-  <si>
     <t>PS_BO_REL_TYPE_LNG (Tipo de Relación Entre Involucrados)</t>
   </si>
   <si>
@@ -2443,6 +2356,30 @@
   </si>
   <si>
     <t>Validaciones Generales PS_AA_CARGOS/5. Búsqueda del nombre corto</t>
+  </si>
+  <si>
+    <t>REL_TYPE_ID</t>
+  </si>
+  <si>
+    <t>NUMBER(12)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>VARCHAR2(3)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>ROLE_VERB_1</t>
+  </si>
+  <si>
+    <t>ROLE_VERB_2</t>
   </si>
 </sst>
 </file>
@@ -3479,20 +3416,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3542,6 +3470,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -4023,7 +3964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4071,11 +4012,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -4083,11 +4024,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -4095,11 +4036,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -4107,11 +4048,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4123,29 +4064,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4731,11 +4672,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -4743,11 +4684,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -4755,11 +4696,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -4767,11 +4708,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4783,29 +4724,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5403,11 +5344,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -5415,11 +5356,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -5427,11 +5368,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -5439,11 +5380,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5455,29 +5396,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5553,7 +5494,7 @@
         <v>34</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="41">
@@ -5684,7 +5625,7 @@
         <v>57</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="L12" s="49"/>
       <c r="M12" s="25">
@@ -5713,7 +5654,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L13" s="50"/>
       <c r="M13" s="25">
@@ -5771,7 +5712,7 @@
         <v>68</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="L15" s="50"/>
       <c r="M15" s="25">
@@ -5800,7 +5741,7 @@
         <v>69</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="L16" s="50"/>
       <c r="M16" s="25">
@@ -5829,7 +5770,7 @@
         <v>70</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="25">
@@ -6019,10 +5960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R46"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6059,11 +6000,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="D2" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -6071,11 +6012,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -6083,11 +6024,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -6095,11 +6036,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6111,29 +6052,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6185,31 +6126,33 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
+      <c r="B9" s="78">
         <v>1</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="47"/>
+      <c r="C9" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="80"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="51">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>34</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="41">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N9" s="45" t="s">
         <v>67</v>
@@ -6231,16 +6174,20 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>183</v>
+      </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="47"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="38">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>38</v>
@@ -6250,7 +6197,7 @@
       </c>
       <c r="L10" s="49"/>
       <c r="M10" s="25">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N10" s="34" t="s">
         <v>67</v>
@@ -6270,16 +6217,20 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>183</v>
+      </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="47"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="38">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>39</v>
@@ -6289,7 +6240,7 @@
       </c>
       <c r="L11" s="49"/>
       <c r="M11" s="25">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="N11" s="34" t="s">
         <v>67</v>
@@ -6309,26 +6260,30 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>183</v>
+      </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="47"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="38">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>57</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="L12" s="49"/>
       <c r="M12" s="25">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="N12" s="34" t="s">
         <v>67</v>
@@ -6348,26 +6303,30 @@
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>183</v>
+      </c>
       <c r="F13" s="66"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="47"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="38">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>58</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="L13" s="50"/>
       <c r="M13" s="25">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="N13" s="34" t="s">
         <v>67</v>
@@ -6383,20 +6342,24 @@
       </c>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="25">
+    <row r="14" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="81">
         <v>6</v>
       </c>
-      <c r="C14" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="47"/>
+      <c r="C14" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="38">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>59</v>
@@ -6406,7 +6369,7 @@
       </c>
       <c r="L14" s="50"/>
       <c r="M14" s="25">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N14" s="34" t="s">
         <v>67</v>
@@ -6423,29 +6386,19 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="25">
-        <v>7</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="38">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>68</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="L15" s="50"/>
       <c r="M15" s="25">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N15" s="34" t="s">
         <v>67</v>
@@ -6462,29 +6415,19 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="25">
-        <v>8</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="38">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>69</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="L16" s="50"/>
       <c r="M16" s="25">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N16" s="34" t="s">
         <v>67</v>
@@ -6500,30 +6443,20 @@
       </c>
       <c r="R16" s="42"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="25">
-        <v>9</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="47"/>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H17" s="63"/>
       <c r="I17" s="38">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>70</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="25">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>67</v>
@@ -6539,20 +6472,10 @@
       </c>
       <c r="R17" s="42"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="25">
-        <v>10</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="47"/>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H18" s="63"/>
       <c r="I18" s="38">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>37</v>
@@ -6562,7 +6485,7 @@
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="25">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N18" s="34" t="s">
         <v>67</v>
@@ -6578,20 +6501,10 @@
       </c>
       <c r="R18" s="42"/>
     </row>
-    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
-        <v>11</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="47"/>
+    <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="64"/>
       <c r="I19" s="36">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>40</v>
@@ -6601,7 +6514,7 @@
       </c>
       <c r="L19" s="50"/>
       <c r="M19" s="25">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N19" s="34" t="s">
         <v>67</v>
@@ -6617,22 +6530,11 @@
       </c>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="25">
-        <v>12</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="63"/>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="J20" s="58"/>
       <c r="L20" s="47"/>
       <c r="M20" s="25">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N20" s="34" t="s">
         <v>67</v>
@@ -6648,21 +6550,10 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="25">
-        <v>13</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="63"/>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="47"/>
       <c r="M21" s="38">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N21" s="34" t="s">
         <v>67</v>
@@ -6678,21 +6569,10 @@
       </c>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="25">
-        <v>14</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="63"/>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L22" s="47"/>
       <c r="M22" s="38">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N22" s="34" t="s">
         <v>67</v>
@@ -6708,21 +6588,10 @@
       </c>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="25">
-        <v>15</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="63"/>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="47"/>
       <c r="M23" s="38">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N23" s="34" t="s">
         <v>67</v>
@@ -6738,21 +6607,10 @@
       </c>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
-        <v>16</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="63"/>
+    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="56"/>
       <c r="M24" s="36">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N24" s="46" t="s">
         <v>67</v>
@@ -6767,292 +6625,6 @@
         <v>21</v>
       </c>
       <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="25">
-        <v>17</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="25">
-        <v>18</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="25">
-        <v>19</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="25">
-        <v>20</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="25">
-        <v>21</v>
-      </c>
-      <c r="C29" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="25">
-        <v>22</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="63"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="25">
-        <v>23</v>
-      </c>
-      <c r="C31" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="63"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="25">
-        <v>24</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="25">
-        <v>25</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="63"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="25">
-        <v>26</v>
-      </c>
-      <c r="C34" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="63"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="25">
-        <v>27</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="63"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="25">
-        <v>28</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="63"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="25">
-        <v>29</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="63"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="25">
-        <v>30</v>
-      </c>
-      <c r="C38" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="63"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="25">
-        <v>31</v>
-      </c>
-      <c r="C39" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="63"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="25">
-        <v>32</v>
-      </c>
-      <c r="C40" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="63"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="25">
-        <v>33</v>
-      </c>
-      <c r="C41" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="63"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="25">
-        <v>34</v>
-      </c>
-      <c r="C42" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="63"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="25">
-        <v>35</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="63"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="25">
-        <v>36</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="63"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="25">
-        <v>37</v>
-      </c>
-      <c r="C45" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="63"/>
-    </row>
-    <row r="46" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="83">
-        <v>38</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7112,11 +6684,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -7124,11 +6696,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -7136,11 +6708,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -7148,11 +6720,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7164,29 +6736,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7718,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7756,11 +7328,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="D2" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -7768,11 +7340,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -7780,11 +7352,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -7792,11 +7364,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7808,29 +7380,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7906,7 +7478,7 @@
         <v>34</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="41">
@@ -8023,7 +7595,7 @@
         <v>57</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="L12" s="49"/>
       <c r="M12" s="25">
@@ -8052,7 +7624,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="L13" s="50"/>
       <c r="M13" s="25">
@@ -8110,7 +7682,7 @@
         <v>68</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="L15" s="50"/>
       <c r="M15" s="25">
@@ -8139,7 +7711,7 @@
         <v>69</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="L16" s="50"/>
       <c r="M16" s="25">
@@ -8389,11 +7961,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -8401,11 +7973,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -8413,11 +7985,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -8425,11 +7997,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8441,29 +8013,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9145,11 +8717,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="D2" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -9157,11 +8729,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -9169,11 +8741,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -9181,11 +8753,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9197,29 +8769,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9295,7 +8867,7 @@
         <v>34</v>
       </c>
       <c r="K9" s="67" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="L9" s="74"/>
       <c r="M9" s="72">
@@ -9398,7 +8970,7 @@
         <v>57</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L12" s="74"/>
       <c r="M12" s="73">
@@ -9427,7 +8999,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="70" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="L13" s="63"/>
       <c r="M13" s="73">
@@ -9485,7 +9057,7 @@
         <v>68</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="L15" s="63"/>
       <c r="M15" s="73">
@@ -9514,7 +9086,7 @@
         <v>70</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L16" s="63"/>
       <c r="M16" s="73">
@@ -9766,11 +9338,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -9778,11 +9350,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -9790,11 +9362,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -9802,11 +9374,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9818,29 +9390,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10424,11 +9996,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -10436,11 +10008,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -10448,11 +10020,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -10460,11 +10032,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10476,29 +10048,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
